--- a/src/saveExcel.xlsx
+++ b/src/saveExcel.xlsx
@@ -4,19 +4,15 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -47,8 +43,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,46 +377,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="1" t="str">
         <v>link</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2" s="1" t="str">
         <v>vivek vishal</v>
       </c>
-      <c r="B2" t="str">
-        <v>http://localhost:2000/</v>
+      <c r="B2" s="1" t="str">
+        <v>http://github.com/</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
+      <c r="A3" s="1" t="str">
         <v>vivek</v>
       </c>
-      <c r="B3" t="str">
-        <v>http://github.com/</v>
+      <c r="B3" s="1" t="str">
+        <v>https://www.twilio.com/company/jobs?department=students#open-positions</v>
       </c>
     </row>
   </sheetData>
@@ -427,236 +411,4 @@
     <ignoredError numberStoredAsText="1" sqref="A1:B3"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>link</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>vivek vishal</v>
-      </c>
-      <c r="B2" t="str">
-        <v>http://localhost:2000/</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>vivek</v>
-      </c>
-      <c r="B3" t="str">
-        <v>http://github.com/</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>vivek vishal</v>
-      </c>
-      <c r="B4" t="str">
-        <v>http://github.com/</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B4"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>link</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>vivek vishal</v>
-      </c>
-      <c r="B2" t="str">
-        <v>http://localhost:2000/</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>vivek</v>
-      </c>
-      <c r="B3" t="str">
-        <v>http://github.com/</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>vivek vishal</v>
-      </c>
-      <c r="B4" t="str">
-        <v>http://github.com/</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>ad</v>
-      </c>
-      <c r="B5" t="str">
-        <v>http://github.com/</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B5"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>link</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>vivek vishal</v>
-      </c>
-      <c r="B2" t="str">
-        <v>http://localhost:2000/</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>vivek</v>
-      </c>
-      <c r="B3" t="str">
-        <v>http://github.com/</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>vivek vishal</v>
-      </c>
-      <c r="B4" t="str">
-        <v>http://github.com/</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>ad</v>
-      </c>
-      <c r="B5" t="str">
-        <v>http://github.com/</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>aljf</v>
-      </c>
-      <c r="B6" t="str">
-        <v>https://www.twilio.com/company/jobs?department=students#open-positions</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B6"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>link</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>vivek vishal</v>
-      </c>
-      <c r="B2" t="str">
-        <v>http://localhost:2000/</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>vivek</v>
-      </c>
-      <c r="B3" t="str">
-        <v>http://github.com/</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>vivek vishal</v>
-      </c>
-      <c r="B4" t="str">
-        <v>http://github.com/</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>ad</v>
-      </c>
-      <c r="B5" t="str">
-        <v>http://github.com/</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>aljf</v>
-      </c>
-      <c r="B6" t="str">
-        <v>https://www.twilio.com/company/jobs?department=students#open-positions</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>vivek vishal</v>
-      </c>
-      <c r="B7" t="str">
-        <v>http://localhost:2000/</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B7"/>
-  </ignoredErrors>
-</worksheet>
 </file>
--- a/src/saveExcel.xlsx
+++ b/src/saveExcel.xlsx
@@ -43,9 +43,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,38 +376,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" s="1" t="str">
-        <v>link</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="str">
-        <v>vivek vishal</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <v>http://github.com/</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="str">
-        <v>vivek</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <v>https://www.twilio.com/company/jobs?department=students#open-positions</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/saveExcel.xlsx
+++ b/src/saveExcel.xlsx
@@ -17,6 +17,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vivek </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://localhost:2000/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vishal</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -95,7 +115,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -116,25 +136,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O14" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/saveExcel.xlsx
+++ b/src/saveExcel.xlsx
@@ -398,17 +398,9 @@
         <v>http://localhost:2000/</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="str">
-        <v>vishal</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <v>http://localhost:2000/</v>
-      </c>
-    </row>
     <row r="4">
       <c r="A4" s="1" t="str">
-        <v>jacks sparrow</v>
+        <v>vivek vishal</v>
       </c>
       <c r="B4" s="1" t="str">
         <v>http://localhost:2000/</v>
